--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D0E10-CC7E-234B-9457-EB37A6300204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA561B-AC3B-114B-A8C1-C38E2DB88788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="정성평가_기준" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>구분</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>에너지원</t>
-  </si>
-  <si>
-    <t>합계</t>
   </si>
   <si>
     <t>연도</t>
@@ -381,93 +378,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>2030 NDC</t>
-  </si>
-  <si>
-    <t>태양광</t>
-  </si>
-  <si>
-    <t>풍력</t>
-  </si>
-  <si>
-    <r>
-      <t>기타</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재생</t>
-    </r>
+    <t>재생에너지</t>
+  </si>
+  <si>
+    <t>총계</t>
+  </si>
+  <si>
+    <t>2038년</t>
+  </si>
+  <si>
+    <t>2018년</t>
+  </si>
+  <si>
+    <t>수소,암모니아, 기타</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,6 +440,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,10 +472,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,8 +486,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -909,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="169" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="113" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1238,20 +1190,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>92</v>
@@ -1270,168 +1222,146 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D2" s="9">
+        <v>31.7</v>
+      </c>
+      <c r="E2" s="9">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="C2" s="6">
-        <v>21.8</v>
-      </c>
-      <c r="D2" s="6">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>21.8</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B5" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="6">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="C3" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="E3" s="6">
-        <v>22.5</v>
-      </c>
-      <c r="F3" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="6">
-        <v>24.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6">
-        <v>35.5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="F5" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="G5" s="6">
-        <v>50</v>
+      <c r="F5" s="9">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>30</v>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9">
         <v>100</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C7" s="9">
         <v>100</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D7" s="9">
         <v>100</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F7" s="9">
         <v>100</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G7" s="9">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1451,16 +1381,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>81</v>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA561B-AC3B-114B-A8C1-C38E2DB88788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21694DDF-993F-594E-BD93-1261B9098578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="정성평가_기준" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>구분</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>재생에너지</t>
-  </si>
-  <si>
-    <t>총계</t>
   </si>
   <si>
     <t>2038년</t>
@@ -1193,7 +1190,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,10 +1200,10 @@
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>81</v>
@@ -1315,7 +1312,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1337,27 +1334,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="9">
-        <v>100</v>
-      </c>
-      <c r="C7" s="9">
-        <v>100</v>
-      </c>
-      <c r="D7" s="9">
-        <v>100</v>
-      </c>
-      <c r="E7" s="9">
-        <v>100</v>
-      </c>
-      <c r="F7" s="9">
-        <v>100</v>
-      </c>
-      <c r="G7" s="9">
-        <v>100</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21694DDF-993F-594E-BD93-1261B9098578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1304FA-6B9B-2D40-A7EB-E8D2BC523007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="정성평가_기준" sheetId="1" r:id="rId1"/>
-    <sheet name="에너지믹스" sheetId="2" r:id="rId2"/>
-    <sheet name="온도경로" sheetId="3" r:id="rId3"/>
+    <sheet name="policy_2025" sheetId="4" r:id="rId2"/>
+    <sheet name="policy_2024" sheetId="5" r:id="rId3"/>
+    <sheet name="policy_2022_prev" sheetId="6" r:id="rId4"/>
+    <sheet name="에너지믹스" sheetId="2" r:id="rId5"/>
+    <sheet name="온도경로" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="150">
   <si>
     <t>구분</t>
   </si>
@@ -381,13 +384,181 @@
     <t>재생에너지</t>
   </si>
   <si>
-    <t>2038년</t>
-  </si>
-  <si>
-    <t>2018년</t>
-  </si>
-  <si>
-    <t>수소,암모니아, 기타</t>
+    <t>시나리오</t>
+  </si>
+  <si>
+    <t>발전량(TWh)</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>청정수소/암모니아</t>
+  </si>
+  <si>
+    <t>민주당-이재명</t>
+  </si>
+  <si>
+    <t>국민의힘-김문수</t>
+  </si>
+  <si>
+    <t>개혁신당-이준석</t>
+  </si>
+  <si>
+    <t>민주노동당-권영국</t>
+  </si>
+  <si>
+    <t>정부(실적)-2018</t>
+  </si>
+  <si>
+    <t>정부(계획)-2040</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>NDC</t>
+  </si>
+  <si>
+    <t>더불어민주당</t>
+  </si>
+  <si>
+    <t>2030년 온실가스 감축 목표 달성 추진과 과학적 근거에 따른 2035년 이후 감축 로드맵 수립</t>
+  </si>
+  <si>
+    <t>제시된 공약 없음</t>
+  </si>
+  <si>
+    <t>2050년 탄소 중립을 목표로 2035년 NDC 70%로 상향</t>
+  </si>
+  <si>
+    <t>태양광 이격거리 규제 및 재생에너지 직접구매(PPA) 개선</t>
+  </si>
+  <si>
+    <t>에너지 신기술 개발과 분산 에너지 활성화</t>
+  </si>
+  <si>
+    <t>공공재생에너지 확대</t>
+  </si>
+  <si>
+    <t>탈석탄</t>
+  </si>
+  <si>
+    <t>2040년까지 석탄화력발전 폐쇄</t>
+  </si>
+  <si>
+    <t>2035년 전까지 석탄화력발전소 조기 폐쇄</t>
+  </si>
+  <si>
+    <t>원전 ６기 차질없이 추진, 한국형 소형원전(SMR) 상용화 추진 및 원전 비중 확대로 안정적 전력원 확보</t>
+  </si>
+  <si>
+    <t>「탈핵기본법」제정으로 2040년 탈핵 달성, 신규 핵발전과 SMR 건설계획 중단, 전면적 개편</t>
+  </si>
+  <si>
+    <t>수소</t>
+  </si>
+  <si>
+    <t>에너지 인프라</t>
+  </si>
+  <si>
+    <t>2030년까지 서해안, 2040년까지 한반도 에너지고속도로 건설 추진</t>
+  </si>
+  <si>
+    <t>에너지 고속도로‧국도‧지방도를 정교하게 연결해 재생에너지 활용도 제고</t>
+  </si>
+  <si>
+    <t>데이타센터 전국, 지역별 전력 사용 총량제 도입. 무분별한 신규 확대 규제</t>
+  </si>
+  <si>
+    <t>산업</t>
+  </si>
+  <si>
+    <t>RE100 산업단지 조성, 탄소다배출 업종의 저탄소 공정 및 기술혁신 지속 추진, 기후테크 R&amp;D 예산 확대, 탄소중립산업의 국산화 및 수출경쟁력 제고</t>
+  </si>
+  <si>
+    <t>철강, 석유화학 등 다배출 산업 탈탄소 계획 수립.「정의로운 전환 기본법」 제정</t>
+  </si>
+  <si>
+    <t>수송</t>
+  </si>
+  <si>
+    <t>전기차 보급 확대 및 노후경유차 조기 대·폐차 지원을 통한 수송부문 탈탄소 가속화</t>
+  </si>
+  <si>
+    <t>2035년 내연기관 신규판매 중단</t>
+  </si>
+  <si>
+    <t>건물</t>
+  </si>
+  <si>
+    <t>민간·공공 그린리모델링 지원 확대 및 절차 간소화를 통한 노후건물 에너지효율화</t>
+  </si>
+  <si>
+    <t>공공임대주택을 녹색주택으로 200만호 증대(신축, 매입 모두 포함), 건물주의 그린리모델링에 대해 임대료 4년 동결 조건부로 리모델링 비용 지원</t>
+  </si>
+  <si>
+    <t>농축수산</t>
+  </si>
+  <si>
+    <t>친환경유기농업 확대 및 지속가능한 축산업으로 농업 탄소배출량 저감 추진</t>
+  </si>
+  <si>
+    <t>농작물재해보상제도 강화 및 기후생태직불금 지급 등으로 기후위기에 대응하는 지속 가능한 농어업 전환 지원 제도 수립</t>
+  </si>
+  <si>
+    <t>폐기물/플라스틱</t>
+  </si>
+  <si>
+    <t>탈플라스틱 국가 로드맵 수립 및 바이오플라스틱 산업 육성 지원</t>
+  </si>
+  <si>
+    <t>플라스틱 생산 감축 목표 로드맵 마련, 전자제품의 내구성 강화와 ‘수리할 권리’를 보장하기 위한 규제 도입, 「폐기물 관리법」개정</t>
+  </si>
+  <si>
+    <t>흡수원</t>
+  </si>
+  <si>
+    <t>법제화</t>
+  </si>
+  <si>
+    <t>책임있는 중간목표를 담은 탄소중립기본법 개정</t>
+  </si>
+  <si>
+    <t>「제1차 탄소중립녹색성장기본계획」재검토, 전면 보완, 공공재생에너지법」을 제정, 「정의로운 탈석탄법」 제정,</t>
+  </si>
+  <si>
+    <t>거버넌스</t>
+  </si>
+  <si>
+    <t>환경부를 기후환경부로 개편하여 기후재난에 선제 대응</t>
+  </si>
+  <si>
+    <t>연구지원</t>
+  </si>
+  <si>
+    <t>기후테크 R&amp;D 예산 확대</t>
+  </si>
+  <si>
+    <t>금융</t>
+  </si>
+  <si>
+    <t>탄소 저감과 복지 강화를 위한 공적 투자 전담 녹색공공투자은행 설치 및 운영</t>
+  </si>
+  <si>
+    <t>세금</t>
+  </si>
+  <si>
+    <t>화석연료 탄소세, 기업 탄소세, 보편 탄소세 도입</t>
   </si>
 </sst>
 </file>
@@ -397,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,6 +622,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,8 +660,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -827,12 +1003,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="113" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="113">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,7 +1052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +1065,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -902,7 +1078,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="211" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="211">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -920,7 +1096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -933,7 +1109,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -953,7 +1129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -966,7 +1142,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="307" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="307">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -983,7 +1159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="346" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="346">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -997,7 +1173,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1013,7 +1189,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="155" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="155">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1205,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="281" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="281">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="155" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="155">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1069,7 +1245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1082,7 +1258,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="183" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="183">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1104,7 +1280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="385" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="385">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1119,7 +1295,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="211" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="211">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1138,7 +1314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="211" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="211">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -1158,7 +1334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1186,161 +1362,1394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA9D41-5508-5E49-BB09-8728DC2EF6B4}">
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D74339-21CA-D847-B580-6621027798F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>226</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>145</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="8">
-        <v>27.3</v>
-      </c>
-      <c r="C2" s="9">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="D2" s="9">
-        <v>31.7</v>
-      </c>
-      <c r="E2" s="9">
-        <v>60</v>
-      </c>
-      <c r="F2" s="9">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>126</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>248.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>248.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="C3" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>381.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="8">
-        <v>22.6</v>
-      </c>
-      <c r="C4" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="D4" s="9">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>248.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="C5" s="9">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>33</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>6.3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1356,13 +2765,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>86</v>
       </c>
@@ -1388,7 +2797,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
@@ -1414,7 +2823,7 @@
         <v>727.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>2020</v>
       </c>
@@ -1440,7 +2849,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>2025</v>
       </c>
@@ -1466,7 +2875,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>2030</v>
       </c>
@@ -1492,7 +2901,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>2035</v>
       </c>
@@ -1518,7 +2927,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>2040</v>
       </c>
@@ -1544,7 +2953,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>2045</v>
       </c>
@@ -1570,7 +2979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>2050</v>
       </c>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E1916-6EDE-2A4A-A25A-5BF89283E0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E664642-64F6-3146-AF76-4931BEA2EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA9D41-5508-5E49-BB09-8728DC2EF6B4}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D69" sqref="A1:D69"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3946,7 +3946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E664642-64F6-3146-AF76-4931BEA2EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F97EE3-A633-2D44-8101-D36879B83FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="정성평가_기준" sheetId="1" r:id="rId5"/>
     <sheet name="온도경로" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,7 +658,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1172,7 +1171,7 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1984,23 +1983,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2154,7 +2153,7 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2972,16 +2971,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3135,7 +3134,7 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3946,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3957,7 +3956,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3981,10 +3980,10 @@
       <c r="C2">
         <v>226</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -3996,10 +3995,10 @@
       <c r="C3">
         <v>145</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -4011,10 +4010,10 @@
       <c r="C4">
         <v>126</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4026,10 +4025,10 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4041,10 +4040,10 @@
       <c r="C6">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4056,10 +4055,10 @@
       <c r="C7">
         <v>70.900000000000006</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4091,18 +4090,19 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>205.7</v>
+        <v>230.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
       </c>
       <c r="C11">
-        <v>43.9</v>
+        <f>700-SUM(C7:C10)</f>
+        <v>75.700000000000045</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4256,7 +4256,7 @@
         <v>97</v>
       </c>
       <c r="C25">
-        <v>205.7</v>
+        <v>230.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4267,7 +4267,8 @@
         <v>97</v>
       </c>
       <c r="C26">
-        <v>43.9</v>
+        <f>700-SUM(C22:C25)</f>
+        <v>75.700000000000045</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4702,7 +4703,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4741,207 +4742,207 @@
       <c r="A2" s="5">
         <v>2018</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>727.7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>727.7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>727.7</v>
       </c>
-      <c r="E2" s="6">
-        <v>727.7</v>
-      </c>
-      <c r="F2" s="6">
-        <v>727.7</v>
-      </c>
-      <c r="G2" s="6">
-        <v>727.7</v>
-      </c>
-      <c r="H2" s="6">
-        <v>727.7</v>
+      <c r="E2">
+        <v>727.6</v>
+      </c>
+      <c r="F2">
+        <v>727.6</v>
+      </c>
+      <c r="G2">
+        <v>727.6</v>
+      </c>
+      <c r="H2">
+        <v>727.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>2020</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>700</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>710</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>720</v>
       </c>
-      <c r="E3" s="6">
-        <v>720</v>
-      </c>
-      <c r="F3" s="6">
-        <v>715</v>
-      </c>
-      <c r="G3" s="6">
-        <v>720</v>
-      </c>
-      <c r="H3" s="6">
-        <v>705</v>
+      <c r="E3">
+        <v>697.8</v>
+      </c>
+      <c r="F3">
+        <v>697.8</v>
+      </c>
+      <c r="G3">
+        <v>679.7</v>
+      </c>
+      <c r="H3">
+        <v>667.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>2025</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>600</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>650</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>710</v>
       </c>
-      <c r="E4" s="6">
-        <v>650</v>
-      </c>
-      <c r="F4" s="6">
-        <v>620</v>
-      </c>
-      <c r="G4" s="6">
-        <v>680</v>
-      </c>
-      <c r="H4" s="6">
-        <v>550</v>
+      <c r="E4">
+        <v>623.4</v>
+      </c>
+      <c r="F4">
+        <v>623.4</v>
+      </c>
+      <c r="G4">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="H4">
+        <v>517.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>2030</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>550</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>680</v>
       </c>
-      <c r="E5" s="6">
-        <v>465.9</v>
-      </c>
-      <c r="F5" s="6">
-        <v>439.3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>512</v>
-      </c>
-      <c r="H5" s="6">
-        <v>327</v>
+      <c r="E5">
+        <v>549</v>
+      </c>
+      <c r="F5">
+        <v>549</v>
+      </c>
+      <c r="G5">
+        <v>440</v>
+      </c>
+      <c r="H5">
+        <v>368.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>2035</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>350</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>450</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>650</v>
       </c>
-      <c r="E6" s="6">
-        <v>400</v>
-      </c>
-      <c r="F6" s="6">
-        <v>380</v>
-      </c>
-      <c r="G6" s="6">
-        <v>450</v>
-      </c>
-      <c r="H6" s="6">
-        <v>200</v>
+      <c r="E6">
+        <v>474.6</v>
+      </c>
+      <c r="F6">
+        <v>474.6</v>
+      </c>
+      <c r="G6">
+        <v>415.1</v>
+      </c>
+      <c r="H6">
+        <v>218.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>2040</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>250</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>350</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>600</v>
       </c>
-      <c r="E7" s="6">
-        <v>330</v>
-      </c>
-      <c r="F7" s="6">
-        <v>300</v>
-      </c>
-      <c r="G7" s="6">
-        <v>380</v>
-      </c>
-      <c r="H7" s="6">
-        <v>110</v>
+      <c r="E7">
+        <v>400.2</v>
+      </c>
+      <c r="F7">
+        <v>400.2</v>
+      </c>
+      <c r="G7">
+        <v>400.2</v>
+      </c>
+      <c r="H7">
+        <v>145.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>2045</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>150</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>250</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>550</v>
       </c>
-      <c r="E8" s="6">
-        <v>250</v>
-      </c>
-      <c r="F8" s="6">
-        <v>200</v>
-      </c>
-      <c r="G8" s="6">
-        <v>300</v>
-      </c>
-      <c r="H8" s="6">
-        <v>60</v>
+      <c r="E8">
+        <v>200.1</v>
+      </c>
+      <c r="F8">
+        <v>200.1</v>
+      </c>
+      <c r="G8">
+        <v>400.2</v>
+      </c>
+      <c r="H8">
+        <v>72.8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>2050</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>150</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>500</v>
       </c>
-      <c r="E9" s="6">
-        <v>180</v>
-      </c>
-      <c r="F9" s="6">
-        <v>120</v>
-      </c>
-      <c r="G9" s="6">
-        <v>220</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>400.2</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F97EE3-A633-2D44-8101-D36879B83FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DA3C1-40A9-CF43-9A0C-7E6C0781F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="149">
   <si>
     <t>구분</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>LNG</t>
-  </si>
-  <si>
-    <t>민주당</t>
   </si>
   <si>
     <t>국민의힘</t>
@@ -1009,184 +1006,184 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1194,13 +1191,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1208,13 +1205,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1222,13 +1219,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1236,741 +1233,741 @@
         <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1991,184 +1988,184 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2176,13 +2173,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2190,13 +2187,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2204,13 +2201,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2218,741 +2215,741 @@
         <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2965,191 +2962,191 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D69"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3157,13 +3154,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3171,13 +3168,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3185,13 +3182,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3199,741 +3196,741 @@
         <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3945,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3957,13 +3954,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3975,7 +3972,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>226</v>
@@ -3990,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -4005,7 +4002,7 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>126</v>
@@ -4017,10 +4014,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -4032,10 +4029,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -4050,7 +4047,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>70.900000000000006</v>
@@ -4065,7 +4062,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>74.3</v>
@@ -4076,7 +4073,7 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>248.3</v>
@@ -4084,10 +4081,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>230.8</v>
@@ -4095,10 +4092,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <f>700-SUM(C7:C10)</f>
@@ -4110,7 +4107,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4121,7 +4118,7 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -4132,7 +4129,7 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>248.3</v>
@@ -4140,10 +4137,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>381.7</v>
@@ -4151,10 +4148,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4165,7 +4162,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4176,7 +4173,7 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>105</v>
@@ -4187,7 +4184,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>420</v>
@@ -4195,10 +4192,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>168</v>
@@ -4206,10 +4203,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -4220,7 +4217,7 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>70.900000000000006</v>
@@ -4231,7 +4228,7 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>74.3</v>
@@ -4242,7 +4239,7 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>248.3</v>
@@ -4250,10 +4247,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>230.8</v>
@@ -4261,10 +4258,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <f>700-SUM(C22:C25)</f>
@@ -4276,7 +4273,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4287,7 +4284,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28">
         <v>70</v>
@@ -4298,7 +4295,7 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4306,10 +4303,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>420</v>
@@ -4317,10 +4314,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>210</v>
@@ -4702,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4714,28 +4711,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DA3C1-40A9-CF43-9A0C-7E6C0781F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F98BF-6F7F-D44E-BA73-ED1F6CB63F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="에너지믹스" sheetId="2" r:id="rId4"/>
     <sheet name="정성평가_기준" sheetId="1" r:id="rId5"/>
     <sheet name="온도경로" sheetId="3" r:id="rId6"/>
+    <sheet name="에너지설명" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="155">
   <si>
     <t>구분</t>
   </si>
@@ -557,6 +558,24 @@
   <si>
     <t>화석연료 탄소세, 기업 탄소세, 보편 탄소세 도입</t>
   </si>
+  <si>
+    <t>energy_source</t>
+  </si>
+  <si>
+    <t>발전 단가는 낮지만 탄소·대기오염이 심각합니다.</t>
+  </si>
+  <si>
+    <t>유연성은 좋고 미세먼지 적지만 탄소를 배출합니다.</t>
+  </si>
+  <si>
+    <t>무탄소 베이스로드원이지만 폐기물·안전성 이슈가 있습니다.</t>
+  </si>
+  <si>
+    <t>무탄소·분산 가능, 출력 변동성과 부지 제약이 존재합니다.</t>
+  </si>
+  <si>
+    <t>수력·바이오·연료전지 등 보조 전원입니다.</t>
+  </si>
 </sst>
 </file>
 
@@ -565,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,6 +639,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
@@ -646,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -657,6 +684,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4699,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4947,4 +4975,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA54E8-D507-D74F-AD6B-6E908FE3418D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F98BF-6F7F-D44E-BA73-ED1F6CB63F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22A77E-0451-054D-BB3B-845CE80E2C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22A77E-0451-054D-BB3B-845CE80E2C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395EB038-62B9-A64E-A873-95A08CAEF528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
-    <sheet name="policy_2024" sheetId="5" r:id="rId2"/>
+    <sheet name="policy_2024_총선" sheetId="5" r:id="rId2"/>
     <sheet name="policy_2022_prev" sheetId="6" r:id="rId3"/>
     <sheet name="에너지믹스" sheetId="2" r:id="rId4"/>
     <sheet name="정성평가_기준" sheetId="1" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="198">
   <si>
     <t>구분</t>
   </si>
@@ -575,6 +575,135 @@
   </si>
   <si>
     <t>수력·바이오·연료전지 등 보조 전원입니다.</t>
+  </si>
+  <si>
+    <t>2035년 2018년 대비 52% 감축</t>
+  </si>
+  <si>
+    <t>녹색정의당</t>
+  </si>
+  <si>
+    <t>2030 재생에너지 비중 40%, 한국형 FIT(발전차액지원제도) 재도입 및 RPS(신재생에너지 의무공급비율) 비중 상향, 분산에너지를 통한 지역경제 활성화 추진, 주민수용성 확보 및 이격거리 규제 개선, 에너지 자립마을 육성 및 확대</t>
+  </si>
+  <si>
+    <t>무탄소 전원에 유리한 전력시장 개편, 해상풍력 계획입지 및 인허가를 간소화하고 주민 피해보상, 이익공유 등 기준 마련, 수열, 조력 등 미활용에너지 적극 활용</t>
+  </si>
+  <si>
+    <t>2030 재생에너지 50%, 2050년 100%, 공유지 재생에너지 확대 법제화, 1가구 1태양광 지원 등</t>
+  </si>
+  <si>
+    <t>CF100 / RE100 기반 구축 및 민간 주도 확산 지원</t>
+  </si>
+  <si>
+    <t>2040 탈석탄</t>
+  </si>
+  <si>
+    <t>SMR 기술 개발 적극 추진</t>
+  </si>
+  <si>
+    <t>원전 신규 건설 중단, 핵발전소 수명연장 금지</t>
+  </si>
+  <si>
+    <t>EU텍소노미 원자력발전소 친환경 분류 기본조건 확립</t>
+  </si>
+  <si>
+    <t>수소를 활용한 무탄소 신전원을 확대하고 수소환원제철 등 수소수요 확충 및 산업 지원, 수소공급망 확보 및 도시 조성 등</t>
+  </si>
+  <si>
+    <t>온실가스배출권</t>
+  </si>
+  <si>
+    <t>배출권거래제 유상할당 확대 (전환부문 2030년 100%)</t>
+  </si>
+  <si>
+    <t>제4차 배출권거래제 할당계획 상 유상할당 확대</t>
+  </si>
+  <si>
+    <t>재생에너지 전력계통 접속 보장, VPP(통합발전소), P2X(섹터커플링) 등 신기술 개발, 송배전 설비 확충</t>
+  </si>
+  <si>
+    <t>RE100 산단 조성, 탄소차액계약지원제도(CCfD) 도입, 산단태양광 설치의무화제도 도입 및 규제 개선 추진, 기업부담 완화를 위한 세제</t>
+  </si>
+  <si>
+    <t>탄소중립 설비교체, 저탄소 기술개발 등 재정지원 확대, 탄소차액계약제도(CCfD) 도입, 기후테크 산업 육성, CCUS 산업 활성화 등</t>
+  </si>
+  <si>
+    <t>탄소국경조정제도(CBAM)에 대비한 국가 전략 수립과 대응 체계 구축</t>
+  </si>
+  <si>
+    <t>미래차(수소·전기) 산업 지원, 2차전지 산업육성</t>
+  </si>
+  <si>
+    <t>2035년 내연기관차 판매 중단, 전기·수소차 등 무공해차 구매 및 전환 보조금 지급 범위 확대 등</t>
+  </si>
+  <si>
+    <t>2027년까지 무공해차 200만 대 보급, 보조금 체계 개편, 화재예방 전기차 충전시설 완비, 친환경 선박 건조를 위한 산은, 수은 등 정책금융기관의 선박금융 확대 등</t>
+  </si>
+  <si>
+    <t>2030년 신규 내연기관차 판매 중단, 수송 부문 탄소중립 실현을 위한 2030년 무상교통 국가계획 수립, 신규 공항 건설 금지 및 이용률 하위권 공항 통폐합 추진 등</t>
+  </si>
+  <si>
+    <t>제로에너지건축물 활성화, 민간부문 제로에너지건축 및 그린리모델링 시 저리대출 및 보조금 지원 확대, 2030년까지 그린리모델링 로드맵 수립 및 관련 예산 대폭 확대</t>
+  </si>
+  <si>
+    <t>녹색주택 100만 호 공급, 건물 에너지 효율 등급제 도입, 난방 연료 탈탄소화 로드맵 구상</t>
+  </si>
+  <si>
+    <t>탄소중립직불제·경축순환직불제 도입 등 공익형직불제 확대</t>
+  </si>
+  <si>
+    <t>기후생태직불제 전면 개편</t>
+  </si>
+  <si>
+    <t>탈플라스틱 컨트롤타워 설치, 플라스틱 폐기물부담금 부과요율 현실화, 재생플라스틱 사용 제도 개선, 수리권 보장 확대 등</t>
+  </si>
+  <si>
+    <t>플라스틱 경량화·재생원료 사용 확대, 폐자원 순환경제망 구축, 폐비닐 전문선별시설 설치 확대하여 재활용가능자원 적극 회수</t>
+  </si>
+  <si>
+    <t>국내 석유화학업계 화석연료 사용 규제 및 생산자책임재활용제도(EPR) 강화, 모든 공공기관 및 매장의 일회용 플라스틱 용품과 종이컵 사용 금지</t>
+  </si>
+  <si>
+    <t>환경친화적 숲 가꾸기</t>
+  </si>
+  <si>
+    <t>탄소중립산업법 제정, 탄소중립 기본법 개정, 지붕태양광, 마을공동체형 영농형태양광지원법 및 해상풍력발전추진특별법 제정, ｢기업의 ESG 도입 및 확산 지원법｣(가칭) 제정 추진</t>
+  </si>
+  <si>
+    <t>탄소중립, 녹색성장 기본법' 개정, '석탄화력발전소 폐지지역 지원 특별법' 제정, '녹색융합클러스터의 조성 및 육성에 관한 법률' 개정, '전기안전법' 개정</t>
+  </si>
+  <si>
+    <t>탄소중립산업전환지원법 제정, 녹색 금융 지원 및 활성화 특별법 제정, 탈석탄지역지원 특별법 제정, 탄소중립산업전환지원법 제정, 기후변화대응 기술개발 및 산업 촉진</t>
+  </si>
+  <si>
+    <t>기후에너지부 신설, 기후위기특별위원회 상설화, 녹색투자금융공사 설립 추진, 탄소중립지원센터 확대, 탈플라스틱 컨트롤타워 설치</t>
+  </si>
+  <si>
+    <t>탄소중립녹색성장 위원회 기능 강화, 제 22대 국회에 기후위기특별위원회 상설화</t>
+  </si>
+  <si>
+    <t>기후경제부 신설, 기후위기특별위원회 상설화, 국가 정의로운전환위원회 출범, 탈석탄준비위원회 구성</t>
+  </si>
+  <si>
+    <t>기후테크 R&amp;D 확대, 수소환원제철 등 주력산업의 저탄소 신기술에 대한 R&amp;D 지원 강화</t>
+  </si>
+  <si>
+    <t>철강, 석유화학, 반도체 등 온실가스 다배출 산업 기술개발 지원</t>
+  </si>
+  <si>
+    <t>기후대응기금 2027년까지 7조 이상 확보, 탄소가치평가에 기반한 자금조달 시스템 구축, RE100 펀드 조성, 기후 스타트업 전용 펀드 조성, 기후산업 투자 확대 등</t>
+  </si>
+  <si>
+    <t>기후대응기금 2027년까지 5조원 확충 로드맵 마련, 배출권 연계 금융상품(ETN, ETF 등) 출시 허용, 한국형 녹색채권 지원 금리 인상 및 기업당 지원 한도 확대, 산업은행 탄소중립 정책금융 확대, 민관합동 녹색투자 펀드 조성 등</t>
+  </si>
+  <si>
+    <t>산업은행을 녹색투자은행으로 전환, 좌초 인프라 예산 기후대응기금으로 전환</t>
+  </si>
+  <si>
+    <t>탄소세 도입, 탄소예산 도입</t>
+  </si>
+  <si>
+    <t>탄소세 부과</t>
   </si>
 </sst>
 </file>
@@ -2006,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2036,10 +2165,10 @@
         <v>105</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2050,7 +2179,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>107</v>
@@ -2061,13 +2190,13 @@
         <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2078,7 +2207,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>107</v>
@@ -2092,10 +2221,10 @@
         <v>105</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2109,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2117,13 +2246,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2137,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2148,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2162,7 +2291,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>107</v>
@@ -2173,13 +2302,13 @@
         <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2190,7 +2319,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>107</v>
@@ -2204,7 +2333,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>107</v>
@@ -2218,10 +2347,10 @@
         <v>81</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2229,13 +2358,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2246,10 +2375,10 @@
         <v>82</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2260,7 +2389,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>107</v>
@@ -2274,10 +2403,10 @@
         <v>81</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2285,10 +2414,10 @@
         <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>107</v>
@@ -2302,7 +2431,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>107</v>
@@ -2310,7 +2439,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>105</v>
@@ -2319,12 +2448,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -2333,32 +2462,32 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>107</v>
@@ -2366,7 +2495,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>105</v>
@@ -2375,18 +2504,18 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>107</v>
@@ -2394,27 +2523,27 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>107</v>
@@ -2422,49 +2551,49 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -2473,60 +2602,60 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>107</v>
@@ -2534,7 +2663,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>105</v>
@@ -2543,18 +2672,18 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>107</v>
@@ -2562,27 +2691,27 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>107</v>
@@ -2590,27 +2719,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>107</v>
@@ -2618,27 +2747,27 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C44" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>107</v>
@@ -2646,55 +2775,55 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>107</v>
@@ -2702,27 +2831,27 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>107</v>
@@ -2730,27 +2859,27 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>107</v>
@@ -2758,21 +2887,21 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -2781,32 +2910,32 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>107</v>
@@ -2814,55 +2943,55 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C58" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C60" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>107</v>
@@ -2870,7 +2999,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>105</v>
@@ -2879,12 +3008,12 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -2893,32 +3022,32 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>107</v>
@@ -2926,57 +3055,113 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C66" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C67" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C68" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4981,7 +5166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA54E8-D507-D74F-AD6B-6E908FE3418D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395EB038-62B9-A64E-A873-95A08CAEF528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D12BF-FABC-904C-9DBC-DB2C3D5EC70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -802,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,6 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1162,16 +1163,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1325,7 +1326,7 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2137,23 +2138,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3181,16 +3182,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3344,7 +3345,7 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4166,7 +4167,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -4190,10 +4191,10 @@
       <c r="C2">
         <v>226</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -4205,10 +4206,10 @@
       <c r="C3">
         <v>145</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -4220,10 +4221,10 @@
       <c r="C4">
         <v>126</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4235,10 +4236,10 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4250,10 +4251,10 @@
       <c r="C6">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4265,10 +4266,10 @@
       <c r="C7">
         <v>70.900000000000006</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4910,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5004,77 +5005,77 @@
       <c r="A4" s="5">
         <v>2025</v>
       </c>
-      <c r="B4">
-        <v>600</v>
-      </c>
-      <c r="C4">
-        <v>650</v>
-      </c>
-      <c r="D4">
-        <v>710</v>
-      </c>
-      <c r="E4">
-        <v>623.4</v>
-      </c>
-      <c r="F4">
-        <v>623.4</v>
-      </c>
-      <c r="G4">
-        <v>559.79999999999995</v>
-      </c>
-      <c r="H4">
-        <v>517.9</v>
+      <c r="B4" s="6">
+        <v>498.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>584.70000000000005</v>
+      </c>
+      <c r="D4" s="6">
+        <v>670.9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>582.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>582.1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>582.1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>582.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>2030</v>
       </c>
-      <c r="B5">
-        <v>450</v>
-      </c>
-      <c r="C5">
-        <v>550</v>
-      </c>
-      <c r="D5">
-        <v>680</v>
-      </c>
-      <c r="E5">
-        <v>549</v>
-      </c>
-      <c r="F5">
-        <v>549</v>
-      </c>
-      <c r="G5">
-        <v>440</v>
-      </c>
-      <c r="H5">
-        <v>368.1</v>
+      <c r="B5" s="6">
+        <v>414.7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>531.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>654.79999999999995</v>
+      </c>
+      <c r="E5" s="6">
+        <v>436.6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>436.6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>436.6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>436.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>2035</v>
       </c>
-      <c r="B6">
-        <v>350</v>
-      </c>
-      <c r="C6">
-        <v>450</v>
-      </c>
-      <c r="D6">
-        <v>650</v>
-      </c>
-      <c r="E6">
-        <v>474.6</v>
-      </c>
-      <c r="F6">
-        <v>474.6</v>
-      </c>
-      <c r="G6">
-        <v>415.1</v>
-      </c>
-      <c r="H6">
+      <c r="B6" s="6">
+        <v>207.4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>379.7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>575.79999999999995</v>
+      </c>
+      <c r="E6" s="6">
+        <v>382.3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>389.3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>413.2</v>
+      </c>
+      <c r="H6" s="6">
         <v>218.3</v>
       </c>
     </row>
@@ -5082,25 +5083,25 @@
       <c r="A7" s="5">
         <v>2040</v>
       </c>
-      <c r="B7">
-        <v>250</v>
-      </c>
-      <c r="C7">
-        <v>350</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>400.2</v>
-      </c>
-      <c r="F7">
-        <v>400.2</v>
-      </c>
-      <c r="G7">
-        <v>400.2</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="6">
+        <v>116.4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>509.3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>327.9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>342</v>
+      </c>
+      <c r="G7" s="6">
+        <v>389.8</v>
+      </c>
+      <c r="H7" s="6">
         <v>145.5</v>
       </c>
     </row>
@@ -5108,25 +5109,25 @@
       <c r="A8" s="5">
         <v>2045</v>
       </c>
-      <c r="B8">
-        <v>150</v>
-      </c>
-      <c r="C8">
-        <v>250</v>
-      </c>
-      <c r="D8">
-        <v>550</v>
-      </c>
-      <c r="E8">
-        <v>200.1</v>
-      </c>
-      <c r="F8">
-        <v>200.1</v>
-      </c>
-      <c r="G8">
-        <v>400.2</v>
-      </c>
-      <c r="H8">
+      <c r="B8" s="6">
+        <v>58.2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>425.1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>304.5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>335.5</v>
+      </c>
+      <c r="H8" s="6">
         <v>72.8</v>
       </c>
     </row>
@@ -5134,27 +5135,36 @@
       <c r="A9" s="5">
         <v>2050</v>
       </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>150</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="C9" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="E9" s="6">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="G9" s="6">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>400.2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5177,10 +5187,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>103</v>
       </c>
     </row>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D12BF-FABC-904C-9DBC-DB2C3D5EC70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE666A2-11AC-9C40-99BF-B1C28BF45727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="정성평가_기준" sheetId="1" r:id="rId5"/>
     <sheet name="온도경로" sheetId="3" r:id="rId6"/>
     <sheet name="에너지설명" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="194">
   <si>
     <t>구분</t>
   </si>
@@ -562,21 +563,6 @@
     <t>energy_source</t>
   </si>
   <si>
-    <t>발전 단가는 낮지만 탄소·대기오염이 심각합니다.</t>
-  </si>
-  <si>
-    <t>유연성은 좋고 미세먼지 적지만 탄소를 배출합니다.</t>
-  </si>
-  <si>
-    <t>무탄소 베이스로드원이지만 폐기물·안전성 이슈가 있습니다.</t>
-  </si>
-  <si>
-    <t>무탄소·분산 가능, 출력 변동성과 부지 제약이 존재합니다.</t>
-  </si>
-  <si>
-    <t>수력·바이오·연료전지 등 보조 전원입니다.</t>
-  </si>
-  <si>
     <t>2035년 2018년 대비 52% 감축</t>
   </si>
   <si>
@@ -704,6 +690,9 @@
   </si>
   <si>
     <t>탄소세 부과</t>
+  </si>
+  <si>
+    <t>이재명-더불어민주당</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2191,7 +2180,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -2225,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2239,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2247,13 +2236,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2267,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2281,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2303,7 +2292,7 @@
         <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -2351,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2359,13 +2348,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2379,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2407,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2415,7 +2404,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -2440,7 +2429,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>105</v>
@@ -2449,12 +2438,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -2463,15 +2452,15 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2482,7 +2471,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -2505,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2527,7 +2516,7 @@
         <v>118</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2561,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2575,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2583,13 +2572,13 @@
         <v>122</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2603,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2617,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2631,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2639,13 +2628,13 @@
         <v>125</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2673,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2695,13 +2684,13 @@
         <v>128</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2729,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2751,13 +2740,13 @@
         <v>131</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2785,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2799,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2807,13 +2796,13 @@
         <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2841,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2863,7 +2852,7 @@
         <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -2897,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2911,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2919,13 +2908,13 @@
         <v>138</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2953,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2967,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2975,13 +2964,13 @@
         <v>141</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3009,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3023,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3031,7 +3020,7 @@
         <v>143</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
@@ -3065,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3079,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3087,13 +3076,13 @@
         <v>145</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3121,7 +3110,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3143,13 +3132,13 @@
         <v>147</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4157,7 +4146,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C22:C26"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4379,7 +4368,7 @@
         <v>95</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4412,7 +4401,7 @@
         <v>95</v>
       </c>
       <c r="C20">
-        <v>168</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4914,7 +4903,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5070,7 +5059,7 @@
         <v>382.3</v>
       </c>
       <c r="F6" s="6">
-        <v>389.3</v>
+        <v>404</v>
       </c>
       <c r="G6" s="6">
         <v>413.2</v>
@@ -5096,7 +5085,7 @@
         <v>327.9</v>
       </c>
       <c r="F7" s="6">
-        <v>342</v>
+        <v>378.3</v>
       </c>
       <c r="G7" s="6">
         <v>389.8</v>
@@ -5122,7 +5111,7 @@
         <v>304.5</v>
       </c>
       <c r="F8" s="6">
-        <v>311.60000000000002</v>
+        <v>329.7</v>
       </c>
       <c r="G8" s="6">
         <v>335.5</v>
@@ -5174,15 +5163,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA54E8-D507-D74F-AD6B-6E908FE3418D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5196,45 +5185,32 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>154</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D3711D-11D8-054E-8BBE-9F73DC691CCE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE666A2-11AC-9C40-99BF-B1C28BF45727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52792C-788C-0447-8103-08CCF4B27189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
@@ -4903,7 +4903,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52792C-788C-0447-8103-08CCF4B27189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C9EDB-BA83-1F4E-A65E-819A03EBD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA9D41-5508-5E49-BB09-8728DC2EF6B4}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A42" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2041,7 +2041,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>146</v>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2169,7 +2169,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>107</v>
@@ -2183,7 +2183,7 @@
         <v>151</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>107</v>
@@ -2197,7 +2197,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>107</v>
@@ -2225,7 +2225,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>153</v>
@@ -2253,7 +2253,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>155</v>
@@ -2281,7 +2281,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>107</v>
@@ -2295,7 +2295,7 @@
         <v>151</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>107</v>
@@ -2309,7 +2309,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>107</v>
@@ -2323,7 +2323,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>107</v>
@@ -2337,7 +2337,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>157</v>
@@ -2365,7 +2365,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>159</v>
@@ -2379,7 +2379,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>107</v>
@@ -2393,7 +2393,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>160</v>
@@ -2407,7 +2407,7 @@
         <v>151</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>107</v>
@@ -2421,7 +2421,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>107</v>
@@ -2449,7 +2449,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>163</v>
@@ -2463,7 +2463,7 @@
         <v>151</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>107</v>
@@ -2477,7 +2477,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>107</v>
@@ -2505,7 +2505,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>107</v>
@@ -2519,7 +2519,7 @@
         <v>151</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>107</v>
@@ -2533,7 +2533,7 @@
         <v>82</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>107</v>
@@ -2575,7 +2575,7 @@
         <v>151</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>167</v>
@@ -2589,7 +2589,7 @@
         <v>82</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>168</v>
@@ -2645,7 +2645,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>107</v>
@@ -2659,7 +2659,7 @@
         <v>105</v>
       </c>
       <c r="C38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>172</v>
@@ -2673,7 +2673,7 @@
         <v>81</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>107</v>
@@ -2701,7 +2701,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>107</v>
@@ -2715,7 +2715,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>174</v>
@@ -2729,7 +2729,7 @@
         <v>81</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>107</v>
@@ -2743,7 +2743,7 @@
         <v>151</v>
       </c>
       <c r="C44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>175</v>
@@ -2757,7 +2757,7 @@
         <v>82</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>107</v>
@@ -2785,7 +2785,7 @@
         <v>81</v>
       </c>
       <c r="C47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>177</v>
@@ -2813,7 +2813,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>107</v>
@@ -2827,7 +2827,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>179</v>
@@ -2841,7 +2841,7 @@
         <v>81</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>107</v>
@@ -2855,7 +2855,7 @@
         <v>151</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>107</v>
@@ -2869,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>107</v>
@@ -2897,7 +2897,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>181</v>
@@ -2925,7 +2925,7 @@
         <v>82</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>107</v>
@@ -2953,7 +2953,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>184</v>
@@ -2981,7 +2981,7 @@
         <v>82</v>
       </c>
       <c r="C61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>107</v>
@@ -2995,7 +2995,7 @@
         <v>105</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>186</v>
@@ -3009,7 +3009,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>187</v>
@@ -3023,7 +3023,7 @@
         <v>151</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>107</v>
@@ -3037,7 +3037,7 @@
         <v>82</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>107</v>
@@ -3079,7 +3079,7 @@
         <v>151</v>
       </c>
       <c r="C68" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>190</v>
@@ -3093,7 +3093,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>107</v>
@@ -3121,7 +3121,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>107</v>
@@ -3149,7 +3149,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>107</v>
@@ -4902,7 +4902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C9EDB-BA83-1F4E-A65E-819A03EBD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DBFB49-BD7A-4E43-AD0F-4BB7337403BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DBFB49-BD7A-4E43-AD0F-4BB7337403BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865C4FF0-024E-654E-909B-B7588C0B38AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA9D41-5508-5E49-BB09-8728DC2EF6B4}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1873,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>140</v>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865C4FF0-024E-654E-909B-B7588C0B38AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD1A81-F7EC-D649-8A43-6611D49AD84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="193">
   <si>
     <t>구분</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>기타</t>
-  </si>
-  <si>
-    <t>청정수소/암모니아</t>
   </si>
   <si>
     <t>민주당-이재명</t>
@@ -1142,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA9D41-5508-5E49-BB09-8728DC2EF6B4}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A55" zoomScale="140" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1153,35 +1150,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -1190,12 +1187,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>83</v>
@@ -1204,12 +1201,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
@@ -1218,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1226,13 +1223,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1246,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1260,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1274,26 +1271,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -1302,12 +1299,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -1316,12 +1313,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -1330,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1338,13 +1335,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1358,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1372,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1386,26 +1383,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -1414,12 +1411,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>83</v>
@@ -1428,12 +1425,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -1442,26 +1439,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -1470,12 +1467,12 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>83</v>
@@ -1484,12 +1481,12 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -1498,26 +1495,26 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -1526,12 +1523,12 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>83</v>
@@ -1540,12 +1537,12 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -1554,26 +1551,26 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
@@ -1582,12 +1579,12 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>83</v>
@@ -1596,12 +1593,12 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -1610,26 +1607,26 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
@@ -1638,12 +1635,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>83</v>
@@ -1652,12 +1649,12 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
@@ -1666,26 +1663,26 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
@@ -1694,12 +1691,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
@@ -1708,12 +1705,12 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -1722,26 +1719,26 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -1750,12 +1747,12 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>83</v>
@@ -1764,12 +1761,12 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
@@ -1778,26 +1775,26 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
@@ -1806,12 +1803,12 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>83</v>
@@ -1820,12 +1817,12 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
@@ -1834,26 +1831,26 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
@@ -1862,12 +1859,12 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>83</v>
@@ -1876,12 +1873,12 @@
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
@@ -1890,26 +1887,26 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -1918,12 +1915,12 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>83</v>
@@ -1932,12 +1929,12 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
@@ -1946,26 +1943,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -1974,12 +1971,12 @@
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>83</v>
@@ -1988,12 +1985,12 @@
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -2002,26 +1999,26 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -2030,12 +2027,12 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>83</v>
@@ -2044,12 +2041,12 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
@@ -2058,26 +2055,26 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
@@ -2086,12 +2083,12 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>83</v>
@@ -2100,12 +2097,12 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -2114,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2127,43 +2124,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3BDD37-EB1F-BC4E-9273-2C1342E2ADDA}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="A1:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -2172,26 +2169,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
@@ -2200,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2208,13 +2205,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2228,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2236,13 +2233,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2256,26 +2253,26 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -2284,26 +2281,26 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -2312,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2320,13 +2317,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2340,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2348,13 +2345,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2368,26 +2365,26 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -2396,26 +2393,26 @@
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -2424,26 +2421,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -2452,26 +2449,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -2480,26 +2477,26 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -2508,26 +2505,26 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -2536,26 +2533,26 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
@@ -2564,26 +2561,26 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -2592,26 +2589,26 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
@@ -2620,26 +2617,26 @@
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
@@ -2648,26 +2645,26 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
@@ -2676,26 +2673,26 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -2704,26 +2701,26 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -2732,26 +2729,26 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
@@ -2760,26 +2757,26 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
@@ -2788,26 +2785,26 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
@@ -2816,26 +2813,26 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
@@ -2844,26 +2841,26 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
@@ -2872,26 +2869,26 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -2900,26 +2897,26 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
@@ -2928,26 +2925,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -2956,26 +2953,26 @@
         <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -2984,26 +2981,26 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -3012,26 +3009,26 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
@@ -3040,26 +3037,26 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="3">
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
@@ -3068,26 +3065,26 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -3096,26 +3093,26 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3">
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>81</v>
@@ -3124,26 +3121,26 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>82</v>
@@ -3152,11 +3149,12 @@
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3172,35 +3170,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -3209,12 +3207,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>83</v>
@@ -3223,12 +3221,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
@@ -3237,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3245,13 +3243,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3265,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3279,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3293,26 +3291,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -3321,12 +3319,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -3335,12 +3333,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -3349,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3357,13 +3355,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3377,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3391,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3405,26 +3403,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -3433,12 +3431,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>83</v>
@@ -3447,12 +3445,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -3461,26 +3459,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -3489,12 +3487,12 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>83</v>
@@ -3503,12 +3501,12 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -3517,26 +3515,26 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -3545,12 +3543,12 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>83</v>
@@ -3559,12 +3557,12 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -3573,26 +3571,26 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
@@ -3601,12 +3599,12 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>83</v>
@@ -3615,12 +3613,12 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -3629,26 +3627,26 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
@@ -3657,12 +3655,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>83</v>
@@ -3671,12 +3669,12 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
@@ -3685,26 +3683,26 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
@@ -3713,12 +3711,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
@@ -3727,12 +3725,12 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -3741,26 +3739,26 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -3769,12 +3767,12 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>83</v>
@@ -3783,12 +3781,12 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
@@ -3797,26 +3795,26 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
@@ -3825,12 +3823,12 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>83</v>
@@ -3839,12 +3837,12 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
@@ -3853,26 +3851,26 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
@@ -3881,12 +3879,12 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>83</v>
@@ -3895,12 +3893,12 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
@@ -3909,26 +3907,26 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -3937,12 +3935,12 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>83</v>
@@ -3951,12 +3949,12 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
@@ -3965,26 +3963,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -3993,12 +3991,12 @@
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>83</v>
@@ -4007,12 +4005,12 @@
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -4021,26 +4019,26 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -4049,12 +4047,12 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>83</v>
@@ -4063,12 +4061,12 @@
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
@@ -4077,26 +4075,26 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
@@ -4105,12 +4103,12 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>83</v>
@@ -4119,12 +4117,12 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -4133,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4145,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4175,7 +4173,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>226</v>
@@ -4190,7 +4188,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -4205,7 +4203,7 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>126</v>
@@ -4220,7 +4218,7 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -4235,7 +4233,7 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -4250,7 +4248,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>70.900000000000006</v>
@@ -4265,7 +4263,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>74.3</v>
@@ -4276,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>248.3</v>
@@ -4287,7 +4285,7 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>230.8</v>
@@ -4298,7 +4296,7 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <f>700-SUM(C7:C10)</f>
@@ -4310,7 +4308,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4321,7 +4319,7 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -4332,7 +4330,7 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>248.3</v>
@@ -4343,7 +4341,7 @@
         <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>381.7</v>
@@ -4354,7 +4352,7 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4365,7 +4363,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>70.900000000000006</v>
@@ -4376,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>105</v>
@@ -4387,7 +4385,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>420</v>
@@ -4398,7 +4396,7 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>97.1</v>
@@ -4409,7 +4407,7 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -4420,7 +4418,7 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>70.900000000000006</v>
@@ -4431,7 +4429,7 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>74.3</v>
@@ -4442,7 +4440,7 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>248.3</v>
@@ -4453,7 +4451,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>230.8</v>
@@ -4461,10 +4459,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <f>700-SUM(C22:C25)</f>
@@ -4476,7 +4474,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4487,7 +4485,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <v>70</v>
@@ -4498,7 +4496,7 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4509,7 +4507,7 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>420</v>
@@ -4520,7 +4518,7 @@
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>210</v>
@@ -4926,7 +4924,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>81</v>
@@ -5177,15 +5175,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD1A81-F7EC-D649-8A43-6611D49AD84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC27AFD-98A1-084B-8D4C-0F1BF1DD85EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -407,9 +407,6 @@
     <t>정부(실적)-2018</t>
   </si>
   <si>
-    <t>정부(계획)-2040</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -690,6 +687,9 @@
   </si>
   <si>
     <t>이재명-더불어민주당</t>
+  </si>
+  <si>
+    <t>정부(계획)-2038</t>
   </si>
 </sst>
 </file>
@@ -1150,35 +1150,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -1187,12 +1187,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>83</v>
@@ -1201,12 +1201,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1223,13 +1223,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1271,26 +1271,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -1299,12 +1299,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -1313,12 +1313,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1335,13 +1335,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1369,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1383,26 +1383,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -1411,12 +1411,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>83</v>
@@ -1425,12 +1425,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -1439,26 +1439,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -1467,12 +1467,12 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>83</v>
@@ -1481,12 +1481,12 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -1495,26 +1495,26 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -1523,12 +1523,12 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>83</v>
@@ -1537,12 +1537,12 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -1551,26 +1551,26 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
@@ -1579,12 +1579,12 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>83</v>
@@ -1593,12 +1593,12 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -1607,26 +1607,26 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
@@ -1635,12 +1635,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>83</v>
@@ -1649,12 +1649,12 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
@@ -1663,26 +1663,26 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
@@ -1691,12 +1691,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
@@ -1705,12 +1705,12 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -1719,26 +1719,26 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -1747,12 +1747,12 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>83</v>
@@ -1761,12 +1761,12 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
@@ -1775,26 +1775,26 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
@@ -1803,12 +1803,12 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>83</v>
@@ -1817,12 +1817,12 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
@@ -1831,26 +1831,26 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
@@ -1859,12 +1859,12 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>83</v>
@@ -1873,12 +1873,12 @@
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
@@ -1887,26 +1887,26 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -1915,12 +1915,12 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>83</v>
@@ -1929,12 +1929,12 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
@@ -1943,26 +1943,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -1971,12 +1971,12 @@
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>83</v>
@@ -1985,12 +1985,12 @@
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -1999,26 +1999,26 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -2027,12 +2027,12 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>83</v>
@@ -2041,12 +2041,12 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
@@ -2055,26 +2055,26 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
@@ -2083,12 +2083,12 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>83</v>
@@ -2097,12 +2097,12 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2125,42 +2125,42 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D73" sqref="A1:D73"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -2169,26 +2169,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2253,26 +2253,26 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -2281,26 +2281,26 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2365,26 +2365,26 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -2393,26 +2393,26 @@
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -2421,26 +2421,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -2449,26 +2449,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -2477,26 +2477,26 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -2505,26 +2505,26 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -2533,26 +2533,26 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
@@ -2561,26 +2561,26 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -2589,26 +2589,26 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
@@ -2617,26 +2617,26 @@
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
@@ -2645,26 +2645,26 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
@@ -2673,26 +2673,26 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -2701,26 +2701,26 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -2729,26 +2729,26 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
@@ -2757,26 +2757,26 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
@@ -2785,26 +2785,26 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
@@ -2813,26 +2813,26 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
@@ -2841,26 +2841,26 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
@@ -2869,26 +2869,26 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -2897,26 +2897,26 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
@@ -2925,26 +2925,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -2953,26 +2953,26 @@
         <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -2981,26 +2981,26 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -3009,26 +3009,26 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
@@ -3037,26 +3037,26 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3">
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
@@ -3065,26 +3065,26 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -3093,26 +3093,26 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="3">
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>81</v>
@@ -3121,26 +3121,26 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>82</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3170,35 +3170,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -3207,12 +3207,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>83</v>
@@ -3221,12 +3221,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3263,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3291,26 +3291,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>81</v>
@@ -3319,12 +3319,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -3333,12 +3333,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3375,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3389,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3403,26 +3403,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -3431,12 +3431,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>83</v>
@@ -3445,12 +3445,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -3459,26 +3459,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -3487,12 +3487,12 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>83</v>
@@ -3501,12 +3501,12 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -3515,26 +3515,26 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -3543,12 +3543,12 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>83</v>
@@ -3557,12 +3557,12 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -3571,26 +3571,26 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>81</v>
@@ -3599,12 +3599,12 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>83</v>
@@ -3613,12 +3613,12 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>82</v>
@@ -3627,26 +3627,26 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>81</v>
@@ -3655,12 +3655,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>83</v>
@@ -3669,12 +3669,12 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
@@ -3683,26 +3683,26 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>81</v>
@@ -3711,12 +3711,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
@@ -3725,12 +3725,12 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -3739,26 +3739,26 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -3767,12 +3767,12 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>83</v>
@@ -3781,12 +3781,12 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>82</v>
@@ -3795,26 +3795,26 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
@@ -3823,12 +3823,12 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>83</v>
@@ -3837,12 +3837,12 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
@@ -3851,26 +3851,26 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>81</v>
@@ -3879,12 +3879,12 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>83</v>
@@ -3893,12 +3893,12 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>82</v>
@@ -3907,26 +3907,26 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>81</v>
@@ -3935,12 +3935,12 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>83</v>
@@ -3949,12 +3949,12 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
@@ -3963,26 +3963,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
@@ -3991,12 +3991,12 @@
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>83</v>
@@ -4005,12 +4005,12 @@
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -4019,26 +4019,26 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>81</v>
@@ -4047,12 +4047,12 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>83</v>
@@ -4061,12 +4061,12 @@
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>82</v>
@@ -4075,26 +4075,26 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>81</v>
@@ -4103,12 +4103,12 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>83</v>
@@ -4117,12 +4117,12 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4248,7 +4248,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C7">
         <v>70.900000000000006</v>
@@ -4263,7 +4263,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C8">
         <v>74.3</v>
@@ -4274,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>248.3</v>
@@ -4285,7 +4285,7 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C10">
         <v>230.8</v>
@@ -4296,7 +4296,7 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C11">
         <f>700-SUM(C7:C10)</f>
@@ -4900,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4924,7 +4924,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>81</v>
@@ -5054,13 +5054,13 @@
         <v>575.79999999999995</v>
       </c>
       <c r="E6" s="6">
-        <v>382.3</v>
+        <v>371.6</v>
       </c>
       <c r="F6" s="6">
         <v>404</v>
       </c>
       <c r="G6" s="6">
-        <v>413.2</v>
+        <v>415.7</v>
       </c>
       <c r="H6" s="6">
         <v>218.3</v>
@@ -5080,13 +5080,13 @@
         <v>509.3</v>
       </c>
       <c r="E7" s="6">
-        <v>327.9</v>
+        <v>306.5</v>
       </c>
       <c r="F7" s="6">
         <v>378.3</v>
       </c>
       <c r="G7" s="6">
-        <v>389.8</v>
+        <v>394.8</v>
       </c>
       <c r="H7" s="6">
         <v>145.5</v>
@@ -5106,13 +5106,13 @@
         <v>425.1</v>
       </c>
       <c r="E8" s="6">
-        <v>304.5</v>
+        <v>293.8</v>
       </c>
       <c r="F8" s="6">
         <v>329.7</v>
       </c>
       <c r="G8" s="6">
-        <v>335.5</v>
+        <v>338</v>
       </c>
       <c r="H8" s="6">
         <v>72.8</v>
@@ -5175,15 +5175,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC27AFD-98A1-084B-8D4C-0F1BF1DD85EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D4F49-3726-9146-BC06-CA209F513338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA9D41-5508-5E49-BB09-8728DC2EF6B4}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4900,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D4F49-3726-9146-BC06-CA209F513338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB8277-2012-564C-8D05-EB8B1FF5CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_2025" sheetId="4" r:id="rId1"/>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EEC70F-C5E4-3244-85D4-11124EE4C679}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4900,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C80371-A77E-A24F-94F3-3564D53F9A00}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5132,7 +5132,7 @@
         <v>327.39999999999998</v>
       </c>
       <c r="E9" s="6">
-        <v>281.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>281.10000000000002</v>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB8277-2012-564C-8D05-EB8B1FF5CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C63331-1E6D-2B49-BC1F-2AC6A4A9D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
@@ -5106,7 +5106,7 @@
         <v>425.1</v>
       </c>
       <c r="E8" s="6">
-        <v>293.8</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="F8" s="6">
         <v>329.7</v>

--- a/data/climate_data.xlsx
+++ b/data/climate_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/election2025_v1/election25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C63331-1E6D-2B49-BC1F-2AC6A4A9D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD084D1C-9683-A249-ACD3-1344F12DD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{8F5E749E-32F8-394F-8D06-719D517C5728}"/>
   </bookViews>
